--- a/Deployment/colTranslation.xlsx
+++ b/Deployment/colTranslation.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="207">
   <si>
     <t>Locale</t>
   </si>
@@ -577,9 +577,6 @@
   </si>
   <si>
     <t>RequestClosedSuccess</t>
-  </si>
-  <si>
-    <t>Request closed sucessfully!</t>
   </si>
   <si>
     <t>Title is required</t>
@@ -670,6 +667,12 @@
   </si>
   <si>
     <t>Experts</t>
+  </si>
+  <si>
+    <t>RequestClosedSuccessMsg</t>
+  </si>
+  <si>
+    <t>Request closed successfully!</t>
   </si>
 </sst>
 </file>
@@ -829,9 +832,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="colTranslationadmin" displayName="colTranslationadmin" ref="A1:CC7" totalsRowShown="0">
-  <autoFilter ref="A1:CC7"/>
-  <tableColumns count="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="colTranslationadmin" displayName="colTranslationadmin" ref="A1:CD7" totalsRowShown="0">
+  <autoFilter ref="A1:CD7"/>
+  <tableColumns count="82">
     <tableColumn id="1" name="Locale"/>
     <tableColumn id="2" name="IsSupported"/>
     <tableColumn id="3" name="WelcomeMessage"/>
@@ -912,6 +915,7 @@
     <tableColumn id="78" name="NoSearchResultFound"/>
     <tableColumn id="80" name="ExpertViewGridLabel"/>
     <tableColumn id="81" name="ChannelViewGridLabel"/>
+    <tableColumn id="82" name="RequestClosedSuccessMsg"/>
     <tableColumn id="79" name="updatedby"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1183,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,25 +1414,25 @@
         <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BD1" t="s">
         <v>53</v>
       </c>
       <c r="BE1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF1" t="s">
         <v>192</v>
       </c>
-      <c r="BF1" t="s">
-        <v>193</v>
-      </c>
       <c r="BG1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BH1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:60" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,7 +1551,7 @@
         <v>80</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AN2" t="s">
         <v>39</v>
@@ -1592,25 +1596,25 @@
         <v>89</v>
       </c>
       <c r="BB2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BC2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BD2" t="s">
         <v>90</v>
       </c>
       <c r="BE2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BF2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BG2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BH2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1625,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC2"/>
+  <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CB4" sqref="CB4"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="BY2" sqref="BY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,11 +1701,11 @@
     <col min="69" max="69" width="39.42578125" customWidth="1"/>
     <col min="70" max="70" width="22.28515625" customWidth="1"/>
     <col min="71" max="76" width="47.28515625" customWidth="1"/>
-    <col min="77" max="80" width="30.28515625" customWidth="1"/>
-    <col min="81" max="81" width="22.42578125" customWidth="1"/>
+    <col min="77" max="81" width="30.28515625" customWidth="1"/>
+    <col min="82" max="82" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1934,19 +1938,22 @@
         <v>141</v>
       </c>
       <c r="BZ1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CA1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CB1" t="s">
         <v>203</v>
       </c>
-      <c r="CB1" t="s">
-        <v>204</v>
-      </c>
       <c r="CC1" t="s">
-        <v>202</v>
+        <v>205</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:81" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1993,7 +2000,7 @@
         <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q2" t="s">
         <v>70</v>
@@ -2080,16 +2087,16 @@
         <v>39</v>
       </c>
       <c r="AS2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AT2" t="s">
         <v>160</v>
       </c>
       <c r="AU2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AV2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AW2" t="s">
         <v>122</v>
@@ -2131,7 +2138,7 @@
         <v>165</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BK2" s="2" t="s">
         <v>132</v>
@@ -2173,22 +2180,25 @@
         <v>181</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="BY2" t="s">
         <v>179</v>
       </c>
       <c r="BZ2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CA2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CB2" t="s">
         <v>106</v>
       </c>
       <c r="CC2" t="s">
-        <v>201</v>
+        <v>206</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Deployment/colTranslation.xlsx
+++ b/Deployment/colTranslation.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="206">
   <si>
     <t>Locale</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Status:</t>
   </si>
   <si>
-    <t>ConnectwithExpertsScreenDirect</t>
-  </si>
-  <si>
     <t>Request details</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>Join meeting</t>
   </si>
   <si>
-    <t>We've set up your meeting! Join now. A expert will soon assist you.</t>
-  </si>
-  <si>
     <t>Filter by keyword</t>
   </si>
   <si>
@@ -290,12 +284,6 @@
   </si>
   <si>
     <t>Talk to an expert now</t>
-  </si>
-  <si>
-    <t>Please wait... meeting link is not ready","Meeting link is ready.</t>
-  </si>
-  <si>
-    <t>Meeting Scheduled, please click on join.</t>
   </si>
   <si>
     <t>No query available</t>
@@ -531,9 +519,6 @@
     <t>Type content</t>
   </si>
   <si>
-    <t>Are you sure you want to delete category?</t>
-  </si>
-  <si>
     <t>Are you sure you want to delete this topic?</t>
   </si>
   <si>
@@ -615,10 +600,34 @@
     <t>JoinNow</t>
   </si>
   <si>
-    <t>A expert will soon assist you</t>
-  </si>
-  <si>
     <t>ExpertAssistanceMessage</t>
+  </si>
+  <si>
+    <t>Requested by:</t>
+  </si>
+  <si>
+    <t>Max 3 experts can be selected</t>
+  </si>
+  <si>
+    <t>updatedby</t>
+  </si>
+  <si>
+    <t>ExpertViewGridLabel</t>
+  </si>
+  <si>
+    <t>ChannelViewGridLabel</t>
+  </si>
+  <si>
+    <t>Experts</t>
+  </si>
+  <si>
+    <t>RequestClosedSuccessMsg</t>
+  </si>
+  <si>
+    <t>Request closed successfully!</t>
+  </si>
+  <si>
+    <t>An expert will soon assist you</t>
   </si>
   <si>
     <r>
@@ -644,35 +653,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> button apppears.</t>
+      <t xml:space="preserve"> button appears.</t>
     </r>
   </si>
   <si>
-    <t>Requested by:</t>
-  </si>
-  <si>
-    <t>Max 3 experts can be selected</t>
-  </si>
-  <si>
-    <t>updated by</t>
-  </si>
-  <si>
-    <t>updatedby</t>
-  </si>
-  <si>
-    <t>ExpertViewGridLabel</t>
-  </si>
-  <si>
-    <t>ChannelViewGridLabel</t>
-  </si>
-  <si>
-    <t>Experts</t>
-  </si>
-  <si>
-    <t>RequestClosedSuccessMsg</t>
-  </si>
-  <si>
-    <t>Request closed successfully!</t>
+    <t>Connect with experts screen direct</t>
+  </si>
+  <si>
+    <t>We've set up your meeting! Join now. An expert will soon assist you.</t>
+  </si>
+  <si>
+    <t>Meeting scheduled, please click on join.</t>
+  </si>
+  <si>
+    <t>Please wait... meeting link is not ready.</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete this category?</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,15 +1208,15 @@
     <col min="16" max="16" width="43.7109375" customWidth="1"/>
     <col min="17" max="17" width="29" customWidth="1"/>
     <col min="18" max="18" width="19.28515625" customWidth="1"/>
+    <col min="20" max="20" width="50.5703125" customWidth="1"/>
     <col min="21" max="21" width="34.7109375" customWidth="1"/>
     <col min="22" max="22" width="35.7109375" customWidth="1"/>
     <col min="23" max="23" width="39.5703125" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="33" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="18.85546875" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" customWidth="1"/>
+    <col min="27" max="27" width="36.140625" customWidth="1"/>
+    <col min="28" max="28" width="32.28515625" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" customWidth="1"/>
     <col min="30" max="30" width="39.7109375" customWidth="1"/>
     <col min="31" max="31" width="41" customWidth="1"/>
     <col min="32" max="32" width="68" customWidth="1"/>
@@ -1233,21 +1230,20 @@
     <col min="41" max="41" width="92.28515625" customWidth="1"/>
     <col min="42" max="42" width="67.28515625" customWidth="1"/>
     <col min="43" max="43" width="33.28515625" customWidth="1"/>
-    <col min="44" max="44" width="31" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="0.28515625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="23.42578125" customWidth="1"/>
+    <col min="44" max="44" width="14" customWidth="1"/>
+    <col min="45" max="46" width="23.42578125" customWidth="1"/>
     <col min="47" max="47" width="5" customWidth="1"/>
-    <col min="48" max="48" width="23.42578125" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="19" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" customWidth="1"/>
     <col min="50" max="50" width="26.28515625" customWidth="1"/>
     <col min="51" max="51" width="10.42578125" customWidth="1"/>
-    <col min="52" max="52" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="33.85546875" customWidth="1"/>
     <col min="53" max="53" width="76.7109375" customWidth="1"/>
     <col min="54" max="54" width="66.42578125" customWidth="1"/>
     <col min="55" max="55" width="26" customWidth="1"/>
     <col min="56" max="56" width="21.28515625" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
-    <col min="58" max="58" width="36.85546875" customWidth="1"/>
+    <col min="58" max="58" width="62.5703125" customWidth="1"/>
     <col min="59" max="59" width="40.7109375" customWidth="1"/>
     <col min="60" max="60" width="37.5703125" customWidth="1"/>
     <col min="61" max="61" width="36.42578125" customWidth="1"/>
@@ -1414,25 +1410,25 @@
         <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="BC1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="BD1" t="s">
         <v>53</v>
       </c>
       <c r="BE1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="BF1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="BG1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="BH1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:60" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,7 +1511,7 @@
         <v>25</v>
       </c>
       <c r="AA2" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="AB2" t="s">
         <v>26</v>
@@ -1524,61 +1520,61 @@
         <v>63</v>
       </c>
       <c r="AD2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>77</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>78</v>
       </c>
       <c r="AJ2" t="s">
         <v>62</v>
       </c>
       <c r="AK2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AN2" t="s">
         <v>39</v>
       </c>
       <c r="AO2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AP2" t="s">
         <v>15</v>
       </c>
       <c r="AQ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="s">
         <v>82</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="AW2" t="s">
         <v>48</v>
@@ -1590,31 +1586,31 @@
         <v>50</v>
       </c>
       <c r="AZ2" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="BA2" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="BB2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG2" t="s">
         <v>188</v>
       </c>
-      <c r="BC2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>185</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>193</v>
-      </c>
       <c r="BH2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1631,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="BY2" sqref="BY2"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="CD5" sqref="CD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,11 +1654,11 @@
     <col min="20" max="20" width="23.28515625" customWidth="1"/>
     <col min="21" max="21" width="31.7109375" customWidth="1"/>
     <col min="22" max="23" width="37.7109375" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" customWidth="1"/>
+    <col min="24" max="24" width="27.42578125" customWidth="1"/>
     <col min="25" max="25" width="26" customWidth="1"/>
     <col min="26" max="26" width="14.42578125" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" customWidth="1"/>
+    <col min="27" max="27" width="0.42578125" customWidth="1"/>
+    <col min="28" max="28" width="42" customWidth="1"/>
     <col min="29" max="29" width="40.5703125" customWidth="1"/>
     <col min="30" max="30" width="19.7109375" customWidth="1"/>
     <col min="31" max="36" width="8.7109375" hidden="1" customWidth="1"/>
@@ -1722,25 +1718,25 @@
         <v>46</v>
       </c>
       <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -1752,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q1" t="s">
         <v>21</v>
@@ -1761,64 +1757,64 @@
         <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="V1" t="s">
         <v>24</v>
       </c>
       <c r="W1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="X1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y1" t="s">
         <v>32</v>
       </c>
       <c r="Z1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>106</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>110</v>
       </c>
       <c r="AH1" t="s">
         <v>19</v>
       </c>
       <c r="AI1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AK1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AL1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AM1" t="s">
         <v>39</v>
@@ -1830,52 +1826,52 @@
         <v>40</v>
       </c>
       <c r="AP1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT1" t="s">
         <v>115</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>116</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>117</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>118</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>119</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>120</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>121</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>122</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>123</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>124</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>128</v>
       </c>
       <c r="BD1" t="s">
         <v>49</v>
       </c>
       <c r="BE1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>45</v>
@@ -1887,70 +1883,70 @@
         <v>5</v>
       </c>
       <c r="BI1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BO1" t="s">
         <v>132</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BP1" t="s">
         <v>133</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BQ1" t="s">
         <v>134</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BR1" t="s">
         <v>135</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY1" t="s">
         <v>137</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BZ1" t="s">
         <v>182</v>
       </c>
-      <c r="BY1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>187</v>
-      </c>
       <c r="CA1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="CB1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="CC1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="CD1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:82" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1961,46 +1957,46 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>144</v>
       </c>
-      <c r="G2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" t="s">
-        <v>148</v>
-      </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
         <v>75</v>
-      </c>
-      <c r="N2" t="s">
-        <v>76</v>
       </c>
       <c r="O2" t="s">
         <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Q2" t="s">
         <v>70</v>
@@ -2009,64 +2005,64 @@
         <v>71</v>
       </c>
       <c r="S2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V2" t="s">
         <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="X2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Y2" t="s">
         <v>15</v>
       </c>
       <c r="Z2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF2" t="s">
         <v>153</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>157</v>
-      </c>
       <c r="AG2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AH2" t="s">
         <v>68</v>
       </c>
       <c r="AI2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AJ2" t="s">
         <v>63</v>
       </c>
       <c r="AK2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AL2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AM2" t="s">
         <v>39</v>
@@ -2075,130 +2071,130 @@
         <v>48</v>
       </c>
       <c r="AO2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AP2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AQ2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AR2" t="s">
         <v>39</v>
       </c>
       <c r="AS2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AT2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AU2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AV2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AW2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AX2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AY2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AZ2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="BA2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="BB2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="BC2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="BD2" t="s">
         <v>49</v>
       </c>
       <c r="BE2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BG2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="BO2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="BP2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="BU2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY2" t="s">
         <v>174</v>
       </c>
-      <c r="BV2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BZ2" t="s">
         <v>181</v>
       </c>
-      <c r="BX2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>186</v>
-      </c>
       <c r="CA2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="CB2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="CC2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="CD2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Deployment/colTranslation.xlsx
+++ b/Deployment/colTranslation.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-shakin\Desktop\RapidAssistDeployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DDE028-2DFD-424B-8B45-8A4ED805D219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4560" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Admin" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="228">
   <si>
     <t>Locale</t>
   </si>
@@ -187,9 +197,45 @@
     <t>Meeting ScheduledMessage</t>
   </si>
   <si>
+    <t>DescriptionIsRequired</t>
+  </si>
+  <si>
+    <t>NoSearchResultFound</t>
+  </si>
+  <si>
     <t>Noqueryavailable</t>
   </si>
   <si>
+    <t>Updatedby</t>
+  </si>
+  <si>
+    <t>NoRequestFounderrormessage</t>
+  </si>
+  <si>
+    <t>JoinNow</t>
+  </si>
+  <si>
+    <t>ExpertAssistanceMessage</t>
+  </si>
+  <si>
+    <t>AdaptiveCardHeading</t>
+  </si>
+  <si>
+    <t>AdaptiveCardSubHeading</t>
+  </si>
+  <si>
+    <t>AdaptiveCardCategory</t>
+  </si>
+  <si>
+    <t>AdaptiveCardRequest</t>
+  </si>
+  <si>
+    <t>AdaptiveCardRequestedBy</t>
+  </si>
+  <si>
+    <t>AdaptiveCardRequestedOn</t>
+  </si>
+  <si>
     <t>en-US</t>
   </si>
   <si>
@@ -244,6 +290,9 @@
     <t>Status:</t>
   </si>
   <si>
+    <t>Connect with experts screen direct</t>
+  </si>
+  <si>
     <t>Request details</t>
   </si>
   <si>
@@ -265,6 +314,13 @@
     <t>Join meeting</t>
   </si>
   <si>
+    <t>We've set up your meeting! Join now. An expert will soon assist you.</t>
+  </si>
+  <si>
+    <t>We’re getting your meeting ready... 
+Please wait until the Join meeting button appears.</t>
+  </si>
+  <si>
     <t>Filter by keyword</t>
   </si>
   <si>
@@ -286,9 +342,36 @@
     <t>Talk to an expert now</t>
   </si>
   <si>
+    <t>Please wait... meeting link is not ready.</t>
+  </si>
+  <si>
+    <t>Meeting scheduled, please click on join.</t>
+  </si>
+  <si>
+    <t>Description is required</t>
+  </si>
+  <si>
+    <t>No results found</t>
+  </si>
+  <si>
     <t>No query available</t>
   </si>
   <si>
+    <t>Updated by</t>
+  </si>
+  <si>
+    <t>Once you have an open request, it will appear here</t>
+  </si>
+  <si>
+    <t>We've set up your meeting! Join now.</t>
+  </si>
+  <si>
+    <t>An expert will soon assist you</t>
+  </si>
+  <si>
+    <t>Requested by:</t>
+  </si>
+  <si>
     <t>Viewopenrequests</t>
   </si>
   <si>
@@ -439,7 +522,46 @@
     <t>Typeatitleforthistopic</t>
   </si>
   <si>
+    <t>TagExpertHintText</t>
+  </si>
+  <si>
+    <t>ThreeExpertErrorMsg</t>
+  </si>
+  <si>
+    <t>OneExpertErrorMsg</t>
+  </si>
+  <si>
+    <t>CategoryDeleteSuccess</t>
+  </si>
+  <si>
+    <t>RequestClosedSuccess</t>
+  </si>
+  <si>
     <t>Categoryaddedsuccessfully</t>
+  </si>
+  <si>
+    <t>ExpertViewGridLabel</t>
+  </si>
+  <si>
+    <t>ChannelViewGridLabel</t>
+  </si>
+  <si>
+    <t>ManageTeam</t>
+  </si>
+  <si>
+    <t>ManageTeamDescription</t>
+  </si>
+  <si>
+    <t>TeamIdUpdated</t>
+  </si>
+  <si>
+    <t>TeamId</t>
+  </si>
+  <si>
+    <t>RequestClosedSuccessMsg</t>
+  </si>
+  <si>
+    <t>updatedby</t>
   </si>
   <si>
     <t>Hello,</t>
@@ -461,9 +583,6 @@
     <t>Add, edit or delete content</t>
   </si>
   <si>
-    <t>Manage categories and topics</t>
-  </si>
-  <si>
     <t>Close request</t>
   </si>
   <si>
@@ -498,12 +617,24 @@
   </si>
   <si>
     <t>Are you sure you want to close the request?</t>
+  </si>
+  <si>
+    <t>Content is required</t>
+  </si>
+  <si>
+    <t>Title is required</t>
   </si>
   <si>
     <t xml:space="preserve">Define request categories
 </t>
   </si>
   <si>
+    <t>This category already exists. Type a new category.</t>
+  </si>
+  <si>
+    <t>Category is required</t>
+  </si>
+  <si>
     <t>Expert field is mandatory</t>
   </si>
   <si>
@@ -516,167 +647,89 @@
     <t>Type a category</t>
   </si>
   <si>
+    <t>Max 3 experts can be selected</t>
+  </si>
+  <si>
     <t>Type content</t>
   </si>
   <si>
+    <t>Topic saved successfully!</t>
+  </si>
+  <si>
+    <t>Topic deleted successfully!</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete this category?</t>
+  </si>
+  <si>
     <t>Are you sure you want to delete this topic?</t>
   </si>
   <si>
-    <t>Category is required</t>
-  </si>
-  <si>
-    <t>This category already exists. Type a new category.</t>
-  </si>
-  <si>
-    <t>TagExpertHintText</t>
-  </si>
-  <si>
     <t>Tag one to three experts</t>
   </si>
   <si>
-    <t>ThreeExpertErrorMsg</t>
-  </si>
-  <si>
     <t>Only three experts can be tagged</t>
   </si>
   <si>
-    <t>OneExpertErrorMsg</t>
-  </si>
-  <si>
     <t>At least one expert is required</t>
   </si>
   <si>
-    <t>Topic saved successfully!</t>
-  </si>
-  <si>
-    <t>Topic deleted successfully!</t>
+    <t>Category deleted successfully!</t>
+  </si>
+  <si>
+    <t>Request closed successfully!</t>
   </si>
   <si>
     <t>Category saved successfully!</t>
   </si>
   <si>
-    <t>CategoryDeleteSuccess</t>
-  </si>
-  <si>
-    <t>Category deleted successfully!</t>
-  </si>
-  <si>
-    <t>RequestClosedSuccess</t>
-  </si>
-  <si>
-    <t>Title is required</t>
-  </si>
-  <si>
-    <t>Content is required</t>
-  </si>
-  <si>
-    <t>Once you have an open request, it will appear here</t>
-  </si>
-  <si>
-    <t>No results found</t>
-  </si>
-  <si>
-    <t>NoSearchResultFound</t>
-  </si>
-  <si>
-    <t>Description is required</t>
-  </si>
-  <si>
-    <t>DescriptionIsRequired</t>
-  </si>
-  <si>
-    <t>Updated by</t>
-  </si>
-  <si>
-    <t>Updatedby</t>
-  </si>
-  <si>
-    <t>NoRequestFounderrormessage</t>
-  </si>
-  <si>
-    <t>We've set up your meeting! Join now.</t>
-  </si>
-  <si>
-    <t>JoinNow</t>
-  </si>
-  <si>
-    <t>ExpertAssistanceMessage</t>
-  </si>
-  <si>
-    <t>Requested by:</t>
-  </si>
-  <si>
-    <t>Max 3 experts can be selected</t>
-  </si>
-  <si>
-    <t>updatedby</t>
-  </si>
-  <si>
-    <t>ExpertViewGridLabel</t>
-  </si>
-  <si>
-    <t>ChannelViewGridLabel</t>
-  </si>
-  <si>
     <t>Experts</t>
   </si>
   <si>
-    <t>RequestClosedSuccessMsg</t>
-  </si>
-  <si>
-    <t>Request closed successfully!</t>
-  </si>
-  <si>
-    <t>An expert will soon assist you</t>
-  </si>
-  <si>
-    <r>
-      <t>We’re getting your meeting ready... 
-Please wait for 5 secs and hit refresh until the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Join meeting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button appears.</t>
-    </r>
-  </si>
-  <si>
-    <t>Connect with experts screen direct</t>
-  </si>
-  <si>
-    <t>We've set up your meeting! Join now. An expert will soon assist you.</t>
-  </si>
-  <si>
-    <t>Meeting scheduled, please click on join.</t>
-  </si>
-  <si>
-    <t>Please wait... meeting link is not ready.</t>
-  </si>
-  <si>
-    <t>Are you sure you want to delete this category?</t>
+    <t>Configure a team</t>
+  </si>
+  <si>
+    <t>Specify the team of your experts</t>
+  </si>
+  <si>
+    <t>Select a team</t>
+  </si>
+  <si>
+    <t>TeamIdPlaceHolder</t>
+  </si>
+  <si>
+    <t>Hi, experts! A team member needs rapid assistance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please join the meeting now. </t>
+  </si>
+  <si>
+    <t>AddTopicButtonText</t>
+  </si>
+  <si>
+    <t>AddCategoryButtonText</t>
+  </si>
+  <si>
+    <t>Add topic</t>
+  </si>
+  <si>
+    <t>Add category</t>
+  </si>
+  <si>
+    <t>Start typing a team name</t>
+  </si>
+  <si>
+    <t>Team configured successfully!</t>
+  </si>
+  <si>
+    <t>Manage categories, topics &amp; team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,14 +754,6 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -760,160 +805,173 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="colTranslation" displayName="colTranslation" ref="A1:BH10" totalsRowShown="0">
-  <autoFilter ref="A1:BH10"/>
-  <tableColumns count="60">
-    <tableColumn id="1" name="Locale"/>
-    <tableColumn id="2" name="IsSupported"/>
-    <tableColumn id="3" name="WelcomeMessage"/>
-    <tableColumn id="4" name="AppDescription"/>
-    <tableColumn id="5" name="NewRequestScreenName"/>
-    <tableColumn id="6" name="Followup"/>
-    <tableColumn id="7" name="NewRequestScreenDesc"/>
-    <tableColumn id="8" name="ViewCreatedRequests"/>
-    <tableColumn id="9" name="FurtherAssistanceMessage"/>
-    <tableColumn id="11" name="Connectwithexpertscreen"/>
-    <tableColumn id="12" name="Searchquestionscreen"/>
-    <tableColumn id="13" name="Filteritemscreen"/>
-    <tableColumn id="14" name="Connectnow"/>
-    <tableColumn id="15" name="Talktoanexpert"/>
-    <tableColumn id="16" name="Searchforcommontopics"/>
-    <tableColumn id="18" name="Category"/>
-    <tableColumn id="19" name="Query"/>
-    <tableColumn id="20" name="Submit"/>
-    <tableColumn id="21" name="Back"/>
-    <tableColumn id="22" name="Enterdetails"/>
-    <tableColumn id="23" name="Requestdetails"/>
-    <tableColumn id="24" name="Requestedon"/>
-    <tableColumn id="25" name="Status"/>
-    <tableColumn id="26" name="Join"/>
-    <tableColumn id="27" name="Search"/>
-    <tableColumn id="28" name="Button"/>
-    <tableColumn id="31" name="Connect with Experts Screen Direct"/>
-    <tableColumn id="34" name="ConnectwithExpertsScreenDirects"/>
-    <tableColumn id="36" name="MyRequestScreen"/>
-    <tableColumn id="37" name="RequestdetailScreen"/>
-    <tableColumn id="38" name="Queries"/>
-    <tableColumn id="30" name="FilterCategory"/>
-    <tableColumn id="40" name="Categories"/>
-    <tableColumn id="29" name="Searchtopic"/>
-    <tableColumn id="32" name="SelectCategory"/>
-    <tableColumn id="33" name="ConnectwithExpert"/>
-    <tableColumn id="39" name="Joins"/>
-    <tableColumn id="42" name="Joinmeetingmessage"/>
-    <tableColumn id="43" name="MeetingSchedulemessages"/>
-    <tableColumn id="44" name="Filter"/>
-    <tableColumn id="45" name="FilterByKeyword"/>
-    <tableColumn id="46" name="Categoryinfilter"/>
-    <tableColumn id="47" name="Searchtopicnotselected"/>
-    <tableColumn id="49" name="SearchHintTextNew"/>
-    <tableColumn id="48" name="SearchQuestion"/>
-    <tableColumn id="50" name="Viewrequests"/>
-    <tableColumn id="51" name="Followuponopenrequests"/>
-    <tableColumn id="53" name="Talktoanexpertnowhinttext"/>
-    <tableColumn id="54" name="Clear"/>
-    <tableColumn id="55" name="Closed"/>
-    <tableColumn id="56" name="Result"/>
-    <tableColumn id="57" name="MeetinglinkNotReadyMessage"/>
-    <tableColumn id="58" name="Meeting ScheduledMessage"/>
-    <tableColumn id="35" name="DescriptionIsRequired"/>
-    <tableColumn id="17" name="NoSearchResultFound"/>
-    <tableColumn id="59" name="Noqueryavailable"/>
-    <tableColumn id="52" name="Updatedby"/>
-    <tableColumn id="60" name="NoRequestFounderrormessage"/>
-    <tableColumn id="61" name="JoinNow"/>
-    <tableColumn id="62" name="ExpertAssistanceMessage"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="colTranslation" displayName="colTranslation" ref="A1:BN10" totalsRowShown="0">
+  <autoFilter ref="A1:BN10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="66">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Locale"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IsSupported"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="WelcomeMessage"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="AppDescription"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NewRequestScreenName"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Followup"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="NewRequestScreenDesc"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ViewCreatedRequests"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="FurtherAssistanceMessage"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Connectwithexpertscreen"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Searchquestionscreen"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Filteritemscreen"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Connectnow"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Talktoanexpert"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Searchforcommontopics"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Category"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Query"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Submit"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Back"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Enterdetails"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Requestdetails"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Requestedon"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Status"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Join"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Search"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Button"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Connect with Experts Screen Direct"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="ConnectwithExpertsScreenDirects"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="MyRequestScreen"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="RequestdetailScreen"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Queries"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="FilterCategory"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Categories"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Searchtopic"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="SelectCategory"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="ConnectwithExpert"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Joins"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Joinmeetingmessage"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="MeetingSchedulemessages"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Filter"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="FilterByKeyword"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Categoryinfilter"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Searchtopicnotselected"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="SearchHintTextNew"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="SearchQuestion"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Viewrequests"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Followuponopenrequests"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Talktoanexpertnowhinttext"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Clear"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Closed"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Result"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="MeetinglinkNotReadyMessage"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Meeting ScheduledMessage"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="DescriptionIsRequired"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="NoSearchResultFound"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Noqueryavailable"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Updatedby"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="NoRequestFounderrormessage"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="JoinNow"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="ExpertAssistanceMessage"/>
+    <tableColumn id="10" xr3:uid="{DFFD0B08-0BF7-4E9B-991B-C6946D05F378}" name="AdaptiveCardHeading"/>
+    <tableColumn id="64" xr3:uid="{5D0E8AA1-8F43-4C7D-A73B-B7C854F1E5EA}" name="AdaptiveCardSubHeading"/>
+    <tableColumn id="63" xr3:uid="{233C0327-4656-4F85-8AF4-5F1AD05F962B}" name="AdaptiveCardCategory"/>
+    <tableColumn id="41" xr3:uid="{E05350D5-0BB2-4819-B063-5BDDFF109330}" name="AdaptiveCardRequest"/>
+    <tableColumn id="66" xr3:uid="{0A318098-1F2E-4CFE-AEDD-F44704ECDFCD}" name="AdaptiveCardRequestedBy"/>
+    <tableColumn id="65" xr3:uid="{E54F91FF-C806-459C-AF21-CD838E620D82}" name="AdaptiveCardRequestedOn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="colTranslationadmin" displayName="colTranslationadmin" ref="A1:CD7" totalsRowShown="0">
-  <autoFilter ref="A1:CD7"/>
-  <tableColumns count="82">
-    <tableColumn id="1" name="Locale"/>
-    <tableColumn id="2" name="IsSupported"/>
-    <tableColumn id="3" name="WelcomeMessage"/>
-    <tableColumn id="4" name="AppDescription"/>
-    <tableColumn id="5" name="Followuponopenrequests"/>
-    <tableColumn id="6" name="Viewopenrequests"/>
-    <tableColumn id="7" name="ManageCategories"/>
-    <tableColumn id="8" name="FAQs"/>
-    <tableColumn id="9" name="Managefrequentlyaskedquestions"/>
-    <tableColumn id="11" name="Settingscreendescription"/>
-    <tableColumn id="12" name="Searchtopic"/>
-    <tableColumn id="13" name="Requestdetail"/>
-    <tableColumn id="46" name="FilterCategory"/>
-    <tableColumn id="14" name="Category"/>
-    <tableColumn id="15" name="Query"/>
-    <tableColumn id="16" name="Requestedby"/>
-    <tableColumn id="17" name="Requestedon"/>
-    <tableColumn id="18" name="Status"/>
-    <tableColumn id="19" name="Closerequest"/>
-    <tableColumn id="20" name="Joinmeeting"/>
-    <tableColumn id="21" name="ManageCategory"/>
-    <tableColumn id="22" name="Search"/>
-    <tableColumn id="10" name="SearchTopicHintText"/>
-    <tableColumn id="23" name="Createnewcategory"/>
-    <tableColumn id="24" name="Categories"/>
-    <tableColumn id="25" name="Typehere"/>
-    <tableColumn id="26" name="TagExpert"/>
-    <tableColumn id="27" name="Selectatleastoneexpert"/>
-    <tableColumn id="28" name="Channel"/>
-    <tableColumn id="31" name="Create"/>
-    <tableColumn id="34" name="Edit"/>
-    <tableColumn id="35" name="Topic"/>
-    <tableColumn id="36" name="Answer"/>
-    <tableColumn id="37" name="Enterdetails"/>
-    <tableColumn id="38" name="Add"/>
-    <tableColumn id="40" name="Myrequests"/>
-    <tableColumn id="29" name="Openrequestsscreen"/>
-    <tableColumn id="32" name="Closerequests"/>
-    <tableColumn id="33" name="Filter"/>
-    <tableColumn id="39" name="Clear"/>
-    <tableColumn id="41" name="FilterByKeyword"/>
-    <tableColumn id="43" name="No"/>
-    <tableColumn id="44" name="Yes"/>
-    <tableColumn id="45" name="Filters"/>
-    <tableColumn id="30" name="Norequestsfound"/>
-    <tableColumn id="47" name="ConfirmationMessage"/>
-    <tableColumn id="48" name="Contentismandatory"/>
-    <tableColumn id="49" name="Titleismandatory"/>
-    <tableColumn id="50" name="Delete"/>
-    <tableColumn id="52" name="Settings"/>
-    <tableColumn id="53" name="ConfigureCategories"/>
-    <tableColumn id="54" name="Categoryalreadyexists"/>
-    <tableColumn id="55" name="Categoryismandatory"/>
-    <tableColumn id="56" name="Expertfieldismandatory"/>
-    <tableColumn id="57" name="EditCategory"/>
-    <tableColumn id="58" name="Closed"/>
-    <tableColumn id="59" name="Finditems"/>
-    <tableColumn id="51" name="Viewrequests"/>
-    <tableColumn id="60" name="Queries"/>
-    <tableColumn id="61" name="Followup"/>
-    <tableColumn id="62" name="Typeacategory"/>
-    <tableColumn id="63" name="Max3expertscanbeselected"/>
-    <tableColumn id="64" name="Content"/>
-    <tableColumn id="65" name="Typecontent"/>
-    <tableColumn id="66" name="Topicaddedsuccessfully"/>
-    <tableColumn id="67" name="Topicdeletedsuccessfully"/>
-    <tableColumn id="68" name="DeletionConfirmationMessage"/>
-    <tableColumn id="69" name="Save"/>
-    <tableColumn id="70" name="DeleteTopicConfirmation"/>
-    <tableColumn id="71" name="Title"/>
-    <tableColumn id="72" name="Typeatitleforthistopic"/>
-    <tableColumn id="42" name="TagExpertHintText"/>
-    <tableColumn id="74" name="ThreeExpertErrorMsg"/>
-    <tableColumn id="75" name="OneExpertErrorMsg"/>
-    <tableColumn id="76" name="CategoryDeleteSuccess"/>
-    <tableColumn id="77" name="RequestClosedSuccess"/>
-    <tableColumn id="73" name="Categoryaddedsuccessfully"/>
-    <tableColumn id="78" name="NoSearchResultFound"/>
-    <tableColumn id="80" name="ExpertViewGridLabel"/>
-    <tableColumn id="81" name="ChannelViewGridLabel"/>
-    <tableColumn id="82" name="RequestClosedSuccessMsg"/>
-    <tableColumn id="79" name="updatedby"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="colTranslationadmin" displayName="colTranslationadmin" ref="A1:CK7" totalsRowShown="0">
+  <autoFilter ref="A1:CK7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="89">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Locale"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="IsSupported"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="WelcomeMessage"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="AppDescription"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Followuponopenrequests"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Viewopenrequests"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ManageCategories"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="FAQs"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Managefrequentlyaskedquestions"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Settingscreendescription"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Searchtopic"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Requestdetail"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0100-00002E000000}" name="FilterCategory"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Category"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Query"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Requestedby"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Requestedon"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Status"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Closerequest"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Joinmeeting"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="ManageCategory"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Search"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="SearchTopicHintText"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Createnewcategory"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Categories"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Typehere"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="TagExpert"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Selectatleastoneexpert"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="Channel"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Create"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Edit"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Topic"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Answer"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="Enterdetails"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="Add"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="Myrequests"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Openrequestsscreen"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="Closerequests"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Filter"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="Clear"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="FilterByKeyword"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" name="No"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" name="Yes"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0100-00002D000000}" name="Filters"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="Norequestsfound"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0100-00002F000000}" name="ConfirmationMessage"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0100-000030000000}" name="Contentismandatory"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0100-000031000000}" name="Titleismandatory"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0100-000032000000}" name="Delete"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0100-000034000000}" name="Settings"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0100-000035000000}" name="ConfigureCategories"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0100-000036000000}" name="Categoryalreadyexists"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0100-000037000000}" name="Categoryismandatory"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0100-000038000000}" name="Expertfieldismandatory"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0100-000039000000}" name="EditCategory"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0100-00003A000000}" name="Closed"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0100-00003B000000}" name="Finditems"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0100-000033000000}" name="Viewrequests"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0100-00003C000000}" name="Queries"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0100-00003D000000}" name="Followup"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0100-00003E000000}" name="Typeacategory"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0100-00003F000000}" name="Max3expertscanbeselected"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0100-000040000000}" name="Content"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0100-000041000000}" name="Typecontent"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0100-000042000000}" name="Topicaddedsuccessfully"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0100-000043000000}" name="Topicdeletedsuccessfully"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0100-000044000000}" name="DeletionConfirmationMessage"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0100-000045000000}" name="Save"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0100-000046000000}" name="DeleteTopicConfirmation"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0100-000047000000}" name="Title"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0100-000048000000}" name="Typeatitleforthistopic"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" name="TagExpertHintText"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0100-00004A000000}" name="ThreeExpertErrorMsg"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0100-00004B000000}" name="OneExpertErrorMsg"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0100-00004C000000}" name="CategoryDeleteSuccess"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0100-00004D000000}" name="RequestClosedSuccess"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0100-000049000000}" name="Categoryaddedsuccessfully"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0100-00004E000000}" name="NoSearchResultFound"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0100-000050000000}" name="ExpertViewGridLabel"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0100-000051000000}" name="ChannelViewGridLabel"/>
+    <tableColumn id="85" xr3:uid="{EC46348B-2399-4EF8-A117-D3F6E94E259C}" name="ManageTeam"/>
+    <tableColumn id="84" xr3:uid="{2575044B-6DBD-4DA8-90FA-F0C0BC07EB79}" name="ManageTeamDescription"/>
+    <tableColumn id="86" xr3:uid="{325195CD-D8F3-4662-848C-D6C1873A7E84}" name="TeamIdUpdated"/>
+    <tableColumn id="83" xr3:uid="{744C751C-9107-4B34-A512-D5238C91A495}" name="TeamId"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0100-000052000000}" name="RequestClosedSuccessMsg"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0100-00004F000000}" name="updatedby"/>
+    <tableColumn id="87" xr3:uid="{F1867BEE-1F2D-419A-B5B5-70BEC8AFB248}" name="TeamIdPlaceHolder"/>
+    <tableColumn id="88" xr3:uid="{06A6A377-BC95-4512-9626-CB3C8D264FB5}" name="AddTopicButtonText"/>
+    <tableColumn id="89" xr3:uid="{26DA3932-BC28-454F-8DB4-3F7EAA6C98D2}" name="AddCategoryButtonText"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1181,11 +1239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="AZ5" sqref="AZ5"/>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,10 +1304,13 @@
     <col min="58" max="58" width="62.5703125" customWidth="1"/>
     <col min="59" max="59" width="40.7109375" customWidth="1"/>
     <col min="60" max="60" width="37.5703125" customWidth="1"/>
-    <col min="61" max="61" width="36.42578125" customWidth="1"/>
+    <col min="61" max="63" width="36.42578125" customWidth="1"/>
+    <col min="64" max="64" width="35" customWidth="1"/>
+    <col min="65" max="65" width="32.28515625" customWidth="1"/>
+    <col min="66" max="66" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1410,78 +1471,96 @@
         <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>190</v>
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
         <v>17</v>
@@ -1490,16 +1569,16 @@
         <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="W2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s">
         <v>23</v>
@@ -1511,70 +1590,70 @@
         <v>25</v>
       </c>
       <c r="AA2" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="AB2" t="s">
         <v>26</v>
       </c>
       <c r="AC2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AE2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AF2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>62</v>
-      </c>
       <c r="AK2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="AN2" t="s">
         <v>39</v>
       </c>
       <c r="AO2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AP2" t="s">
         <v>15</v>
       </c>
       <c r="AQ2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AR2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AS2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AW2" t="s">
         <v>48</v>
@@ -1586,31 +1665,49 @@
         <v>50</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="BB2" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="BC2" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="BD2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="BE2" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="BF2" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="BG2" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="BH2" t="s">
-        <v>199</v>
+        <v>109</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1624,11 +1721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:CK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CD5" sqref="CD5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,11 +1794,14 @@
     <col min="69" max="69" width="39.42578125" customWidth="1"/>
     <col min="70" max="70" width="22.28515625" customWidth="1"/>
     <col min="71" max="76" width="47.28515625" customWidth="1"/>
-    <col min="77" max="81" width="30.28515625" customWidth="1"/>
-    <col min="82" max="82" width="22.42578125" customWidth="1"/>
+    <col min="77" max="85" width="30.28515625" customWidth="1"/>
+    <col min="86" max="86" width="22.42578125" customWidth="1"/>
+    <col min="87" max="87" width="30" customWidth="1"/>
+    <col min="88" max="88" width="22.7109375" customWidth="1"/>
+    <col min="89" max="89" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1718,25 +1818,25 @@
         <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -1748,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="Q1" t="s">
         <v>21</v>
@@ -1757,64 +1857,64 @@
         <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="T1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="U1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="V1" t="s">
         <v>24</v>
       </c>
       <c r="W1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="X1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="Y1" t="s">
         <v>32</v>
       </c>
       <c r="Z1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="AA1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="AB1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="AC1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="AD1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="AE1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="AF1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="AG1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="AH1" t="s">
         <v>19</v>
       </c>
       <c r="AI1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="AJ1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="AK1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="AL1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="AM1" t="s">
         <v>39</v>
@@ -1826,52 +1926,52 @@
         <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="AQ1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="AR1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="AS1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="AT1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="AU1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="AV1" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AW1" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AX1" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="AY1" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="AZ1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="BA1" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="BB1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="BC1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="BD1" t="s">
         <v>49</v>
       </c>
       <c r="BE1" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>45</v>
@@ -1883,186 +1983,207 @@
         <v>5</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="BJ1" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="BK1" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="BN1" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="BO1" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="BP1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="BQ1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="BR1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="BS1" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="BT1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY1" t="s">
         <v>166</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BZ1" t="s">
+        <v>54</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB1" t="s">
         <v>168</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CC1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD1" t="s">
         <v>170</v>
       </c>
-      <c r="BW1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>195</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>197</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>193</v>
+      <c r="CE1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>218</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" t="s">
-        <v>144</v>
+        <v>180</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="U2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="V2" t="s">
         <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="X2" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="Y2" t="s">
         <v>15</v>
       </c>
       <c r="Z2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AB2" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="AC2" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="AD2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="AE2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="AF2" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AG2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="AH2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="AJ2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="AL2" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="AM2" t="s">
         <v>39</v>
@@ -2071,130 +2192,151 @@
         <v>48</v>
       </c>
       <c r="AO2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AP2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="AQ2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="AR2" t="s">
         <v>39</v>
       </c>
       <c r="AS2" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="AT2" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="AU2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AV2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="AW2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AX2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="AY2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="AZ2" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="BA2" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="BB2" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="BC2" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="BD2" t="s">
         <v>49</v>
       </c>
       <c r="BE2" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="BG2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="BO2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BP2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="BQ2" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="BR2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="BY2" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="BZ2" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="CA2" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="CB2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="CC2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="CD2" t="s">
-        <v>185</v>
+        <v>216</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>217</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>225</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>223</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2216,4 +2358,204 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005392AA37750002468D9DEDD718EFB21B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="67c4e016c68ee7fb5007e88beb439f0a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b9df00b7-30bc-43ff-b84c-dde0ea51fa6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67bbcdd270bd58f8cdabf92a2449d2cb" ns2:_="">
+    <xsd:import namespace="b9df00b7-30bc-43ff-b84c-dde0ea51fa6d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9df00b7-30bc-43ff-b84c-dde0ea51fa6d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5D62ACC-CCD7-4AD9-94E1-F56A4EA2642B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b9df00b7-30bc-43ff-b84c-dde0ea51fa6d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB612C3C-8187-4F4C-BCEF-F0D154FBF5EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6A0C268-8E82-4C4C-AEAD-B177C994B1B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>